--- a/일정표.xlsx
+++ b/일정표.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nohc2\OneDrive\Desktop\대학활동\3학년\3학년 2학기\네트워크 게임 프로그래밍\termProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nohc2\OneDrive\Desktop\WorkRoom\Dev\CollegeProjects\Network\NWGP7\NWGP7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7448134-7E06-450A-9B20-E1C952341274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8317693-6376-46B2-9709-C94F173EEE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,36 +67,6 @@
   </si>
   <si>
     <t>추가적 과제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노훈철, 진성준, 임동건 : 
-기존 코드를 client와 
-서버로 분할화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노훈철 : 원격 다중접속 에코서버 
-테스트(x)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">노훈철 : participateInMatch 함수 
-구현
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>노훈철 : 서버 멀티스레드 구현 
-Player012
-임동건 : 클라이언트 스레드 send/ 
-recv 구현
-진성준 : 서버 멀티스레드 게임 스레드 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진성준 : 서버ExecuteOP()를 
-만들고 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -115,11 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>노훈철, 임동건, 진성준 : 클라이언트 서버 접속 
-확인(원격 테스트)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">11/14/2025
 </t>
@@ -135,51 +100,6 @@
       </rPr>
       <t>임동건 : 서버 PlayCard() 어떤 카드를 사용했는지 받아서 카드 적용하는</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>노훈철 : 클라ExecuteOP()를 
-만들고 테스트()
-임동건 : Playcard() 함수 구현</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>어떤 카드를 사용헀는지 
-진성준 : keyInput() 함수 구현
-키보드 입력을 받는 (?? - 노훈철이 하긴함. __ 이런 게획이 있는줄 몰라서 11/5일에..)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12/11
-(휴강)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -315,19 +235,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12/9/2025
-노훈철 : 디버깅 및 추가 구현 
-할거 있으면 구현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">11/23
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12/7/2025
-노훈철, 임동건, 진성준 : 플레이어간의 전투가 원할하기 이루어지는지 버그 테스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -422,54 +331,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">12/3/2025
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>진성준 : draw Boss / boss Attack 
-임동건 : 피버타임</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">노훈철 : 서버에 큐와 뮤텍스 구현
-임동건 : 클라에 큐와 
-뮤텍스 구현
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="0.39997558519241921"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>진성준 :  RecvOP() 큐로부터 받아서 조립 
-함수 구현(x ~ 11/13) ??</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">11/29/2025
 </t>
     </r>
@@ -487,112 +348,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">11/27/2025
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>진성준 : AddEffect, AddEffectPos : 이펙트 구현하는 함수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="0.39997558519241921"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>노훈철 : ThrowCard 정보 받아서(x) 
-카드 던지는 함수 구현 - 서버 클라 적용
-임동건 : 피버타임 구현(완)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>임동건 : 아이템 로직과 마나리젠/렌더링</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>노훈철 : Card 사용, 위치 이동 구현</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">12/2/2025
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12/5/2025
-노훈철 : ThrowCard 정보 받아서(x) 
-카드 던지는 함수 구현(Client - RenderThrowingCards
-Server?? ThrowCard??)
-노훈철 :  CarculateParing() 패링의 성공여부 확인하는 함수 구현
-진성준 : void BossAI(): 보스 기믹 
-설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12/6/2025
-노훈철 : pvp 방 만들고 
-(pvp용 카드 던지기 구현)
-임동건 : pvp플레이 SyncBattle 구현
-진성준 : pvp UI/ rendering</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -619,6 +376,537 @@
 클라
 1. 여기에서 카드를 쓰면 목표점 위치와 함께 서버로 정보를 보냄
 2. 그리고 동시에 ThrowCard 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12/7/2025
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>노훈철, 임동건, 진성준 : 플레이어간의 전투가 원할하기 이루어지는지 버그 테스트</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">12/9/2025
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12/5/2025
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">노훈철 : ThrowCard 정보 받아서(x) 
+카드 던지는 함수 구현(Client - RenderThrowingCards
+Server?? ThrowCard??)
+노훈철 :  CarculateParing() 패링의 성공여부 확인하는 함수 구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>진성준 : void BossAI(): 보스 기믹 
+설정</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12/3/2025
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>진성준 : draw Boss / boss Attack 
+임동건 : 피버타임 구현(완)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12/6/2025
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">노훈철 : pvp 방 만들고, 교수님 피드백대로 칸으로 움직이지 말고 부드럽게 서서히 움직이도록 수정
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>임동건 : pvp플레이 SyncBattle 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+진성준 : pvp UI/ rendering</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/27/2025
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>진성준 : AddEffect, AddEffectPos : 이펙트 구현하는 함수 (일부 구현)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>노훈철 : ThrowCard 정보 받아서(x) 
+카드 던지는 함수 구현 - 서버 클라 적용
+임동건 : 피버타임 구현(완)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>임동건 : 아이템 로직과 마나리젠/렌더링</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>노훈철 : Card 사용, 위치 이동 구현</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12/8/2025
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>임동건 : pvp플레이 SyncBattle 구현
+진성준 : AddEffect, AddEffectPos : 이펙트 구현하는 함수 (일부 구현 - pvp 환경에서도 잘 나타나도록)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12/11
+(휴강)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>노훈철 : ThrowCard 카드 던지고, 패링하는 동작 구현
+진성준 : TimeLimit 제한시간 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>노훈철, 임동건, 진성준 : 플레이어간의 전투가 원할하기 이루어지는지 버그 테스트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>각종 에러 고치기</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11/9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+진성준 : 서버ExecuteOP()를 
+만들고 테스트</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11/8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+노훈철 : 클라ExecuteOP()를 
+만들고 테스트()
+임동건 : Playcard() 함수 구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>어떤 카드를 사용헀는지 
+진성준 : keyInput() 함수 구현
+키보드 입력을 받는 (?? - 노훈철이 하긴함. __ 이런 게획이 있는줄 몰라서 11/5일에..)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11/6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+노훈철 : 서버에 큐와 뮤텍스 구현
+임동건 : 클라에 큐와 
+뮤텍스 구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="0.39997558519241921"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>진성준 :  RecvOP() 큐로부터 받아서 조립 
+함수 구현(x ~ 11/13) ??</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11/4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+노훈철 : 서버 멀티스레드 구현 
+Player012
+임동건 : 클라이언트 스레드 send/ 
+recv 구현
+진성준 : 서버 멀티스레드 게임 스레드 구현</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11/3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+노훈철 : participateInMatch 함수 
+구현
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+노훈철, 임동건, 진성준 : 클라이언트 서버 접속 
+확인(원격 테스트)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10/31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+노훈철, 진성준, 임동건 : 
+기존 코드를 client와 
+서버로 분할화</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11/5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+노훈철 : 원격 다중접속 에코서버 
+테스트</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1035,58 +1323,76 @@
     </row>
     <row r="2" spans="1:8" ht="213" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45956</v>
+      </c>
+      <c r="C2" s="4">
+        <v>45957</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45958</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45959</v>
+      </c>
+      <c r="F2" s="4">
+        <v>45960</v>
+      </c>
       <c r="G2" s="5" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45963</v>
+      </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45968</v>
+      </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="292.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="C4" s="4">
+        <v>45971</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45973</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.4">
@@ -1097,16 +1403,16 @@
         <v>45978</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4">
         <v>45980</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G5" s="4">
         <v>45983</v>
@@ -1115,25 +1421,25 @@
     </row>
     <row r="6" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4">
         <v>45985</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D6" s="4">
         <v>45987</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F6" s="4">
         <v>45989</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H6" s="1"/>
     </row>
@@ -1145,48 +1451,48 @@
         <v>45992</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="153.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="4">
-        <v>45999</v>
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4">
         <v>46001</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G8" s="4">
         <v>46004</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
